--- a/Excel/Examples - Copy - Copy.xlsx
+++ b/Excel/Examples - Copy - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darsh\Desktop\Tutorials\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1740F1AA-D48D-4464-A409-7B82C7059D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498E6D23-CA77-46E8-B8C2-1FD1BA030D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FACB53E6-E236-4579-ABC8-2EA865FB7003}"/>
   </bookViews>
@@ -39,7 +39,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="114">
   <si>
     <t>Current Subs</t>
   </si>
@@ -297,9 +296,6 @@
     <t>ds</t>
   </si>
   <si>
-    <t>General</t>
-  </si>
-  <si>
     <t>Person 1</t>
   </si>
   <si>
@@ -381,16 +377,25 @@
     <t>COUNTIF &gt; 4</t>
   </si>
   <si>
-    <t>SUM</t>
-  </si>
-  <si>
-    <t>AVG</t>
-  </si>
-  <si>
-    <t>COUNT</t>
-  </si>
-  <si>
-    <t>MEDIAN</t>
+    <t>Name1</t>
+  </si>
+  <si>
+    <t>Name2</t>
+  </si>
+  <si>
+    <t>Chakraborty</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Name3</t>
+  </si>
+  <si>
+    <t>Name4</t>
+  </si>
+  <si>
+    <t>Name5</t>
   </si>
 </sst>
 </file>
@@ -431,12 +436,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -531,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -564,6 +575,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1334,145 +1346,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918EDDBD-30A6-4EDC-A2D5-27E047C6FFCB}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
         <v>109</v>
       </c>
-      <c r="D1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E2" t="str">
+        <f>_xlfn.CONCAT(A2," ",B2)</f>
+        <v>Name2 Chakraborty</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f>SUM(A1, A2,A3)</f>
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <f>AVERAGE(A2:A13)</f>
-        <v>6.5</v>
-      </c>
-      <c r="D2">
-        <f>COUNT(A2:A13)</f>
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <f>MEDIAN(A2:A13)</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f>SUM(A2:A12)</f>
-        <v>66</v>
-      </c>
       <c r="E3">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+        <f>LEN(A2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="E4">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+        <f>LEN(A4)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="E5">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+        <f>LEN(A5)</f>
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>6.5</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1618,7 +1554,7 @@
     <row r="1" spans="2:11" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -1629,74 +1565,74 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4">
         <v>106000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <v>150000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
       <c r="F7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -1706,17 +1642,17 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" s="13"/>
     </row>
     <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="2:11" ht="21" x14ac:dyDescent="0.4">
       <c r="B12" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -1730,63 +1666,63 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="14" t="s">
         <v>87</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14">
         <v>106000</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" t="s">
         <v>90</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>91</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>92</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15">
         <v>150000</v>
@@ -1795,7 +1731,7 @@
     </row>
     <row r="16" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="11">
         <v>1000000</v>
@@ -1812,7 +1748,7 @@
     <row r="23" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B24" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -1831,44 +1767,44 @@
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
       <c r="O25" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="9"/>
       <c r="O26" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="O27" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28">
         <v>106000</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
@@ -1876,41 +1812,41 @@
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29">
         <v>150000</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30">
         <v>1000000</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="9"/>
       <c r="H31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O31" s="8"/>
     </row>
@@ -1922,7 +1858,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
@@ -1935,7 +1871,7 @@
     <row r="34" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B35" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
@@ -1977,16 +1913,16 @@
         <v>14</v>
       </c>
       <c r="J36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="M36" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="M36" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="O36" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P36" t="s">
         <v>13</v>
@@ -2084,7 +2020,7 @@
         <v>0.62318821841245609</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q39" s="8"/>
     </row>
@@ -2177,7 +2113,7 @@
         <v>0.80304960889192134</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q42" s="8"/>
     </row>
@@ -2311,15 +2247,15 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2955,7 +2891,7 @@
       </c>
       <c r="B8" s="1">
         <f ca="1">TODAY() +B5</f>
-        <v>44991</v>
+        <v>44993</v>
       </c>
     </row>
   </sheetData>
